--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H2">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I2">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J2">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N2">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O2">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P2">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q2">
-        <v>5657.234485230555</v>
+        <v>143.349351155241</v>
       </c>
       <c r="R2">
-        <v>50915.110367075</v>
+        <v>1290.144160397169</v>
       </c>
       <c r="S2">
-        <v>0.4947748537796014</v>
+        <v>0.07673040920066165</v>
       </c>
       <c r="T2">
-        <v>0.4947748537796016</v>
+        <v>0.07673040920066167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H3">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I3">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J3">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O3">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P3">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q3">
-        <v>1980.490098930555</v>
+        <v>583.60523994434</v>
       </c>
       <c r="R3">
-        <v>17824.410890375</v>
+        <v>5252.44715949906</v>
       </c>
       <c r="S3">
-        <v>0.1732112574913675</v>
+        <v>0.3123855707172646</v>
       </c>
       <c r="T3">
-        <v>0.1732112574913676</v>
+        <v>0.3123855707172646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H4">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I4">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J4">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N4">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O4">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P4">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q4">
-        <v>1137.90680669375</v>
+        <v>246.712991288787</v>
       </c>
       <c r="R4">
-        <v>10241.16126024375</v>
+        <v>2220.416921599083</v>
       </c>
       <c r="S4">
-        <v>0.09951994660404613</v>
+        <v>0.1320577220904693</v>
       </c>
       <c r="T4">
-        <v>0.09951994660404614</v>
+        <v>0.1320577220904693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N5">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O5">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P5">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q5">
-        <v>1142.3673641502</v>
+        <v>98.23151268315</v>
       </c>
       <c r="R5">
-        <v>10281.3062773518</v>
+        <v>884.08361414835</v>
       </c>
       <c r="S5">
-        <v>0.09991006153901168</v>
+        <v>0.05258024611785983</v>
       </c>
       <c r="T5">
-        <v>0.09991006153901172</v>
+        <v>0.05258024611785983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O6">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P6">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q6">
-        <v>399.9210674309999</v>
+        <v>399.921067431</v>
       </c>
       <c r="R6">
         <v>3599.289606879</v>
       </c>
       <c r="S6">
-        <v>0.03497661059977985</v>
+        <v>0.2140651973981685</v>
       </c>
       <c r="T6">
-        <v>0.03497661059977985</v>
+        <v>0.2140651973981685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N7">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O7">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P7">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q7">
-        <v>229.77792467415</v>
+        <v>169.06243479705</v>
       </c>
       <c r="R7">
-        <v>2068.00132206735</v>
+        <v>1521.56191317345</v>
       </c>
       <c r="S7">
-        <v>0.02009609808100425</v>
+        <v>0.09049381596704599</v>
       </c>
       <c r="T7">
-        <v>0.02009609808100425</v>
+        <v>0.09049381596704598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H8">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I8">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J8">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N8">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O8">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P8">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q8">
-        <v>571.3295291853924</v>
+        <v>33.47014238627033</v>
       </c>
       <c r="R8">
-        <v>5141.965762668532</v>
+        <v>301.231281476433</v>
       </c>
       <c r="S8">
-        <v>0.04996778638054822</v>
+        <v>0.01791551688658646</v>
       </c>
       <c r="T8">
-        <v>0.04996778638054823</v>
+        <v>0.01791551688658646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H9">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I9">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J9">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O9">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P9">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q9">
-        <v>200.0115920123844</v>
+        <v>136.2639615798244</v>
       </c>
       <c r="R9">
-        <v>1800.10432811146</v>
+        <v>1226.37565421842</v>
       </c>
       <c r="S9">
-        <v>0.01749277079649276</v>
+        <v>0.07293782250887364</v>
       </c>
       <c r="T9">
-        <v>0.01749277079649276</v>
+        <v>0.07293782250887364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H10">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I10">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J10">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N10">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O10">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P10">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q10">
-        <v>114.918298299721</v>
+        <v>57.60415991025899</v>
       </c>
       <c r="R10">
-        <v>1034.264684697489</v>
+        <v>518.4374391923309</v>
       </c>
       <c r="S10">
-        <v>0.01005061472814802</v>
+        <v>0.03083369911307006</v>
       </c>
       <c r="T10">
-        <v>0.01005061472814802</v>
+        <v>0.03083369911307006</v>
       </c>
     </row>
   </sheetData>
